--- a/PartyBuilding/党建资料/党建系统重写工作量预估.xlsx
+++ b/PartyBuilding/党建资料/党建系统重写工作量预估.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="预估" sheetId="1" r:id="rId1"/>
+    <sheet name="进度" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +198,22 @@
   </si>
   <si>
     <t>包括考核项目资料上传提醒、考核提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后记录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发周期：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/10/24~2016/11/13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,6 +221,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -254,7 +274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +293,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -286,31 +312,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -318,16 +335,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,750 +681,953 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5:H5"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="9" style="8"/>
-    <col min="8" max="8" width="67.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="28.75" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="67.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13">
         <v>0.5</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13">
         <v>1</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13">
         <v>0.5</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13">
         <v>1</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="9" t="s">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="9" t="s">
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
         <v>0.5</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
         <v>0.5</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="9" t="s">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="9" t="s">
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="9" t="s">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="9" t="s">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
         <v>1</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13">
         <v>1.5</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="13"/>
+      <c r="G14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13">
         <v>1</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="7" t="s">
+      <c r="F15" s="13"/>
+      <c r="G15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5" t="s">
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13">
         <v>1.5</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="13"/>
+      <c r="G16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5" t="s">
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13">
         <v>1.5</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="7" t="s">
+      <c r="F17" s="13"/>
+      <c r="G17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13">
         <v>1.5</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5" t="s">
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13">
         <v>2</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="7" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5" t="s">
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13">
         <v>2</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="7" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12" t="s">
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15">
         <f>SUM(E2:F21)</f>
         <v>21</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:8" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
     </row>
     <row r="55" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
     </row>
     <row r="60" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
     </row>
     <row r="61" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="222">
+    <mergeCell ref="A2:B5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
@@ -1404,204 +1652,1051 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="67.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13" style="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="20">
+        <v>1</v>
+      </c>
+      <c r="J3" s="21">
+        <v>42669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="20">
+        <v>1</v>
+      </c>
+      <c r="J5" s="21">
+        <v>42669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13">
+        <v>2</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13">
+        <v>2</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15">
+        <f>SUM(E2:F21)</f>
+        <v>21</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="J33" s="17"/>
+    </row>
+    <row r="34" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="J34" s="17"/>
+    </row>
+    <row r="35" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="J35" s="17"/>
+    </row>
+    <row r="36" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="J36" s="17"/>
+    </row>
+    <row r="37" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="J37" s="17"/>
+    </row>
+    <row r="38" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="J43" s="17"/>
+    </row>
+    <row r="44" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="J44" s="17"/>
+    </row>
+    <row r="45" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="J45" s="17"/>
+    </row>
+    <row r="46" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="J50" s="17"/>
+    </row>
+    <row r="51" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="J51" s="17"/>
+    </row>
+    <row r="52" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="J52" s="17"/>
+    </row>
+    <row r="53" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="J53" s="17"/>
+    </row>
+    <row r="54" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+    </row>
+    <row r="57" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+    </row>
+    <row r="58" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+    </row>
+    <row r="59" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+    </row>
+    <row r="60" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+    </row>
+    <row r="61" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="222">
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="E59:F59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="E57:F57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="E55:F55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="E53:F53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="E51:F51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:F49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="E47:F47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="E45:F45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="E43:F43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:F41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="E39:F39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A14:B20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A6:B13"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="A2:B5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
